--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.5877828827569</v>
+        <v>445.9817072893755</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.5883008100743</v>
+        <v>610.2118472376353</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.6802243819034</v>
+        <v>551.9740849749811</v>
       </c>
       <c r="AD2" t="n">
-        <v>328587.7828827569</v>
+        <v>445981.7072893755</v>
       </c>
       <c r="AE2" t="n">
-        <v>449588.3008100743</v>
+        <v>610211.8472376353</v>
       </c>
       <c r="AF2" t="n">
         <v>7.144696359641561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.9675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>406680.2243819034</v>
+        <v>551974.0849749811</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.9573367171676</v>
+        <v>308.1981870722528</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.6377730979798</v>
+        <v>421.690356296661</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.6091856304899</v>
+        <v>381.4448205378391</v>
       </c>
       <c r="AD3" t="n">
-        <v>229957.3367171676</v>
+        <v>308198.1870722529</v>
       </c>
       <c r="AE3" t="n">
-        <v>314637.7730979798</v>
+        <v>421690.356296661</v>
       </c>
       <c r="AF3" t="n">
         <v>9.676332936750682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>284609.18563049</v>
+        <v>381444.8205378391</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.9206283503871</v>
+        <v>291.1273132866913</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.3273971040351</v>
+        <v>398.3332336694564</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.5235192050816</v>
+        <v>360.3168689122474</v>
       </c>
       <c r="AD4" t="n">
-        <v>212920.6283503872</v>
+        <v>291127.3132866913</v>
       </c>
       <c r="AE4" t="n">
-        <v>291327.3971040351</v>
+        <v>398333.2336694564</v>
       </c>
       <c r="AF4" t="n">
         <v>1.014810773195999e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>263523.5192050816</v>
+        <v>360316.8689122474</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.3808203045705</v>
+        <v>361.4726082666199</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.4199431681905</v>
+        <v>494.5827696763811</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.5903906974171</v>
+        <v>447.3804842897435</v>
       </c>
       <c r="AD2" t="n">
-        <v>274380.8203045705</v>
+        <v>361472.60826662</v>
       </c>
       <c r="AE2" t="n">
-        <v>375419.9431681905</v>
+        <v>494582.7696763811</v>
       </c>
       <c r="AF2" t="n">
         <v>8.989802566068888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.1087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>339590.3906974171</v>
+        <v>447380.4842897435</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.6484417848579</v>
+        <v>283.9913497592401</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.7455147357401</v>
+        <v>388.5694935547054</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.7606796452665</v>
+        <v>351.484966450553</v>
       </c>
       <c r="AD3" t="n">
-        <v>206648.4417848579</v>
+        <v>283991.3497592401</v>
       </c>
       <c r="AE3" t="n">
-        <v>282745.5147357401</v>
+        <v>388569.4935547055</v>
       </c>
       <c r="AF3" t="n">
         <v>1.108386702898882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>255760.6796452665</v>
+        <v>351484.966450553</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.1117848010713</v>
+        <v>288.2769550398317</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.2747487411172</v>
+        <v>394.4332477671722</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.6211586859185</v>
+        <v>356.7890921908126</v>
       </c>
       <c r="AD2" t="n">
-        <v>204111.7848010713</v>
+        <v>288276.9550398317</v>
       </c>
       <c r="AE2" t="n">
-        <v>279274.7487411171</v>
+        <v>394433.2477671722</v>
       </c>
       <c r="AF2" t="n">
         <v>1.418849397947073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.89814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>252621.1586859185</v>
+        <v>356789.0921908126</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.7900110021484</v>
+        <v>283.5832522222776</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.3074601013157</v>
+        <v>388.0111165006406</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.1735551373561</v>
+        <v>350.979880118841</v>
       </c>
       <c r="AD2" t="n">
-        <v>207790.0110021484</v>
+        <v>283583.2522222776</v>
       </c>
       <c r="AE2" t="n">
-        <v>284307.4601013156</v>
+        <v>388011.1165006406</v>
       </c>
       <c r="AF2" t="n">
         <v>1.293432676988748e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>257173.5551373561</v>
+        <v>350979.880118841</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.1840676225708</v>
+        <v>283.9773088427</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.8466257539285</v>
+        <v>388.5502821532538</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.6612635768075</v>
+        <v>351.4675885582925</v>
       </c>
       <c r="AD3" t="n">
-        <v>208184.0676225708</v>
+        <v>283977.3088427</v>
       </c>
       <c r="AE3" t="n">
-        <v>284846.6257539285</v>
+        <v>388550.2821532538</v>
       </c>
       <c r="AF3" t="n">
         <v>1.29214134272993e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>257661.2635768075</v>
+        <v>351467.5885582925</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.2735739380749</v>
+        <v>304.4674428509678</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.7562657630552</v>
+        <v>416.5857874642799</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.8616326798065</v>
+        <v>376.8274245905131</v>
       </c>
       <c r="AD2" t="n">
-        <v>221273.5739380749</v>
+        <v>304467.4428509678</v>
       </c>
       <c r="AE2" t="n">
-        <v>302756.2657630552</v>
+        <v>416585.7874642799</v>
       </c>
       <c r="AF2" t="n">
         <v>1.514677432637444e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>273861.6326798065</v>
+        <v>376827.4245905131</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.7688044694534</v>
+        <v>389.4986893189862</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.8967531543275</v>
+        <v>532.9292901956621</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.9718700462813</v>
+        <v>482.0672667103439</v>
       </c>
       <c r="AD2" t="n">
-        <v>282768.8044694533</v>
+        <v>389498.6893189863</v>
       </c>
       <c r="AE2" t="n">
-        <v>386896.7531543276</v>
+        <v>532929.2901956622</v>
       </c>
       <c r="AF2" t="n">
         <v>8.455967413209172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>349971.8700462813</v>
+        <v>482067.2667103439</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.2330748183189</v>
+        <v>285.8030191824504</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.9136795611959</v>
+        <v>391.0482995847559</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.7219178628199</v>
+        <v>353.7271987121214</v>
       </c>
       <c r="AD3" t="n">
-        <v>208233.0748183189</v>
+        <v>285803.0191824504</v>
       </c>
       <c r="AE3" t="n">
-        <v>284913.6795611959</v>
+        <v>391048.2995847558</v>
       </c>
       <c r="AF3" t="n">
         <v>1.083000922326016e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>257721.9178628199</v>
+        <v>353727.1987121215</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.5961471468081</v>
+        <v>286.1660915109395</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.4104511386553</v>
+        <v>391.5450711622154</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.17127825815</v>
+        <v>354.1765591074516</v>
       </c>
       <c r="AD4" t="n">
-        <v>208596.1471468081</v>
+        <v>286166.0915109395</v>
       </c>
       <c r="AE4" t="n">
-        <v>285410.4511386552</v>
+        <v>391545.0711622154</v>
       </c>
       <c r="AF4" t="n">
         <v>1.081538503304211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>258171.27825815</v>
+        <v>354176.5591074516</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.6670644645941</v>
+        <v>322.4607628693968</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.6088539129867</v>
+        <v>441.2050417227492</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.4875878554333</v>
+        <v>399.0970517758946</v>
       </c>
       <c r="AD2" t="n">
-        <v>230667.0644645942</v>
+        <v>322460.7628693968</v>
       </c>
       <c r="AE2" t="n">
-        <v>315608.8539129867</v>
+        <v>441205.0417227492</v>
       </c>
       <c r="AF2" t="n">
         <v>1.556344728167659e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>285487.5878554333</v>
+        <v>399097.0517758946</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.4583380670371</v>
+        <v>309.1327339468608</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.0597534812619</v>
+        <v>422.9690445597977</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.7045770087722</v>
+        <v>382.6014725877923</v>
       </c>
       <c r="AD2" t="n">
-        <v>232458.3380670371</v>
+        <v>309132.7339468608</v>
       </c>
       <c r="AE2" t="n">
-        <v>318059.7534812618</v>
+        <v>422969.0445597977</v>
       </c>
       <c r="AF2" t="n">
         <v>1.090907997317859e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.11805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>287704.5770087722</v>
+        <v>382601.4725877923</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.0177320049162</v>
+        <v>278.725282273663</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.4095733223297</v>
+        <v>381.3642276984379</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.0294315878003</v>
+        <v>344.9673610549534</v>
       </c>
       <c r="AD3" t="n">
-        <v>202017.7320049161</v>
+        <v>278725.282273663</v>
       </c>
       <c r="AE3" t="n">
-        <v>276409.5733223297</v>
+        <v>381364.2276984379</v>
       </c>
       <c r="AF3" t="n">
         <v>1.196747773438619e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>250029.4315878003</v>
+        <v>344967.3610549534</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.3443229645571</v>
+        <v>353.7195766535938</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.1098559102001</v>
+        <v>483.9747297838239</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.5049854515223</v>
+        <v>437.7848608360543</v>
       </c>
       <c r="AD2" t="n">
-        <v>257344.3229645571</v>
+        <v>353719.5766535938</v>
       </c>
       <c r="AE2" t="n">
-        <v>352109.8559102</v>
+        <v>483974.7297838239</v>
       </c>
       <c r="AF2" t="n">
         <v>9.537275640519118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>318504.9854515223</v>
+        <v>437784.8608360544</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.0902056569543</v>
+        <v>282.2989291243964</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.6134673210174</v>
+        <v>386.2538489777833</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.8321118434568</v>
+        <v>349.3903237420249</v>
       </c>
       <c r="AD3" t="n">
-        <v>205090.2056569543</v>
+        <v>282298.9291243964</v>
       </c>
       <c r="AE3" t="n">
-        <v>280613.4673210173</v>
+        <v>386253.8489777833</v>
       </c>
       <c r="AF3" t="n">
         <v>1.136295005774136e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>253832.1118434568</v>
+        <v>349390.3237420248</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.2895316241664</v>
+        <v>426.5792311421644</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.8660232281766</v>
+        <v>583.6645233961852</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.1721431165932</v>
+        <v>527.9604004615561</v>
       </c>
       <c r="AD2" t="n">
-        <v>319289.5316241665</v>
+        <v>426579.2311421644</v>
       </c>
       <c r="AE2" t="n">
-        <v>436866.0232281766</v>
+        <v>583664.5233961853</v>
       </c>
       <c r="AF2" t="n">
         <v>7.552392104184508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>395172.1431165932</v>
+        <v>527960.4004615562</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.8349248080195</v>
+        <v>292.9376046221917</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.9466219701657</v>
+        <v>400.8101541391051</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.8927689260947</v>
+        <v>362.5573955686526</v>
       </c>
       <c r="AD3" t="n">
-        <v>214834.9248080195</v>
+        <v>292937.6046221916</v>
       </c>
       <c r="AE3" t="n">
-        <v>293946.6219701656</v>
+        <v>400810.1541391051</v>
       </c>
       <c r="AF3" t="n">
         <v>1.012310991956775e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>265892.7689260948</v>
+        <v>362557.3955686525</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.8387359206904</v>
+        <v>288.8399305083773</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.4788600351136</v>
+        <v>395.203535639961</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.9468425160702</v>
+        <v>357.4858648701283</v>
       </c>
       <c r="AD4" t="n">
-        <v>210838.7359206904</v>
+        <v>288839.9305083773</v>
       </c>
       <c r="AE4" t="n">
-        <v>288478.8600351136</v>
+        <v>395203.535639961</v>
       </c>
       <c r="AF4" t="n">
         <v>1.041826692222794e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>260946.8425160702</v>
+        <v>357485.8648701283</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2685591484652</v>
+        <v>286.3591752544119</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.6987190209315</v>
+        <v>391.8092568582877</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2411570653467</v>
+        <v>354.4155312914777</v>
       </c>
       <c r="AD2" t="n">
-        <v>210268.5591484652</v>
+        <v>286359.1752544119</v>
       </c>
       <c r="AE2" t="n">
-        <v>287698.7190209315</v>
+        <v>391809.2568582877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244771098387116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>260241.1570653467</v>
+        <v>354415.5312914777</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7620966775045</v>
+        <v>285.3714437427999</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.3233135557592</v>
+        <v>390.4577990284615</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.2377201217575</v>
+        <v>353.193054700147</v>
       </c>
       <c r="AD3" t="n">
-        <v>199762.0966775045</v>
+        <v>285371.4437427999</v>
       </c>
       <c r="AE3" t="n">
-        <v>273323.3135557592</v>
+        <v>390457.7990284614</v>
       </c>
       <c r="AF3" t="n">
         <v>1.257145632211413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.8912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>247237.7201217575</v>
+        <v>353193.054700147</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.45499996935</v>
+        <v>290.029234868393</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.1125949928261</v>
+        <v>396.8307943337398</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.2836034707983</v>
+        <v>358.9578202780447</v>
       </c>
       <c r="AD2" t="n">
-        <v>205454.99996935</v>
+        <v>290029.234868393</v>
       </c>
       <c r="AE2" t="n">
-        <v>281112.5949928261</v>
+        <v>396830.7943337398</v>
       </c>
       <c r="AF2" t="n">
         <v>1.37086305608899e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>254283.6034707983</v>
+        <v>358957.8202780447</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.7851245879849</v>
+        <v>296.437346120373</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.1419948783123</v>
+        <v>405.5986548546149</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.3558115075681</v>
+        <v>366.8888884965771</v>
       </c>
       <c r="AD2" t="n">
-        <v>212785.1245879849</v>
+        <v>296437.3461203731</v>
       </c>
       <c r="AE2" t="n">
-        <v>291141.9948783123</v>
+        <v>405598.6548546149</v>
       </c>
       <c r="AF2" t="n">
         <v>1.462886005224756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>263355.8115075681</v>
+        <v>366888.8884965771</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.4020928284666</v>
+        <v>350.5954775760629</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.6111903684277</v>
+        <v>479.7001996004221</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.9128592175928</v>
+        <v>433.9182858140157</v>
       </c>
       <c r="AD2" t="n">
-        <v>250402.0928284666</v>
+        <v>350595.4775760629</v>
       </c>
       <c r="AE2" t="n">
-        <v>342611.1903684277</v>
+        <v>479700.1996004221</v>
       </c>
       <c r="AF2" t="n">
         <v>1.579216614937317e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>309912.8592175928</v>
+        <v>433918.2858140157</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.0298329841862</v>
+        <v>326.6137497141439</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.4194068576812</v>
+        <v>446.8873415405811</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.0755196068142</v>
+        <v>404.2370408742703</v>
       </c>
       <c r="AD2" t="n">
-        <v>240029.8329841862</v>
+        <v>326613.7497141439</v>
       </c>
       <c r="AE2" t="n">
-        <v>328419.4068576812</v>
+        <v>446887.3415405811</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017268412114968e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>297075.5196068142</v>
+        <v>404237.0408742704</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.6167291550489</v>
+        <v>280.5802106927889</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.5973917659158</v>
+        <v>383.9022225951522</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.0084477097537</v>
+        <v>347.2631332808236</v>
       </c>
       <c r="AD3" t="n">
-        <v>203616.7291550488</v>
+        <v>280580.2106927889</v>
       </c>
       <c r="AE3" t="n">
-        <v>278597.3917659158</v>
+        <v>383902.2225951522</v>
       </c>
       <c r="AF3" t="n">
         <v>1.164885389533351e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>252008.4477097537</v>
+        <v>347263.1332808236</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.7711649971573</v>
+        <v>407.8366163009357</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.5283770364261</v>
+        <v>558.0200509046067</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.2526863157736</v>
+        <v>504.7634004323306</v>
       </c>
       <c r="AD2" t="n">
-        <v>300771.1649971572</v>
+        <v>407836.6163009357</v>
       </c>
       <c r="AE2" t="n">
-        <v>411528.3770364261</v>
+        <v>558020.0509046067</v>
       </c>
       <c r="AF2" t="n">
         <v>7.987042090106099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.50925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>372252.6863157736</v>
+        <v>504763.4004323306</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.5966548265764</v>
+        <v>288.4872851702582</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.1476340022828</v>
+        <v>394.7210307307323</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.647228230934</v>
+        <v>357.0494095522365</v>
       </c>
       <c r="AD3" t="n">
-        <v>210596.6548265764</v>
+        <v>288487.2851702583</v>
       </c>
       <c r="AE3" t="n">
-        <v>288147.6340022828</v>
+        <v>394721.0307307323</v>
       </c>
       <c r="AF3" t="n">
         <v>1.052020561297971e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>260647.2282309341</v>
+        <v>357049.4095522365</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.907972944919</v>
+        <v>287.6971180621157</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.2053490692994</v>
+        <v>393.6398892336591</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.7948736494491</v>
+        <v>356.0714506822524</v>
       </c>
       <c r="AD4" t="n">
-        <v>209907.972944919</v>
+        <v>287697.1180621157</v>
       </c>
       <c r="AE4" t="n">
-        <v>287205.3490692994</v>
+        <v>393639.8892336591</v>
       </c>
       <c r="AF4" t="n">
         <v>1.059463135241061e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>259794.8736494491</v>
+        <v>356071.4506822524</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.8844894445013</v>
+        <v>418.2315296152597</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.3692354928265</v>
+        <v>572.2428298924747</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.2539961756328</v>
+        <v>517.628777355392</v>
       </c>
       <c r="AD2" t="n">
-        <v>291884.4894445013</v>
+        <v>418231.5296152597</v>
       </c>
       <c r="AE2" t="n">
-        <v>399369.2354928265</v>
+        <v>572242.8298924747</v>
       </c>
       <c r="AF2" t="n">
         <v>1.532813203089574e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>361253.9961756328</v>
+        <v>517628.7773553921</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.2725208691304</v>
+        <v>281.7500639455447</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.2311631543817</v>
+        <v>385.5028674258558</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.2954170569357</v>
+        <v>348.7110148154039</v>
       </c>
       <c r="AD2" t="n">
-        <v>206272.5208691304</v>
+        <v>281750.0639455447</v>
       </c>
       <c r="AE2" t="n">
-        <v>282231.1631543817</v>
+        <v>385502.8674258558</v>
       </c>
       <c r="AF2" t="n">
         <v>1.335308484372768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>255295.4170569357</v>
+        <v>348711.0148154039</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.2764443565802</v>
+        <v>291.6487081418559</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.5507284949738</v>
+        <v>399.0466291126101</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.4392203720442</v>
+        <v>360.9621788955634</v>
       </c>
       <c r="AD2" t="n">
-        <v>215276.4443565801</v>
+        <v>291648.7081418559</v>
       </c>
       <c r="AE2" t="n">
-        <v>294550.7284949738</v>
+        <v>399046.6291126101</v>
       </c>
       <c r="AF2" t="n">
         <v>1.17497879244953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>266439.2203720442</v>
+        <v>360962.1788955634</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.2379120986876</v>
+        <v>276.6774956916676</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.9743452065165</v>
+        <v>378.5623557549838</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.8266182254954</v>
+        <v>342.4328958373306</v>
       </c>
       <c r="AD3" t="n">
-        <v>200237.9120986876</v>
+        <v>276677.4956916675</v>
       </c>
       <c r="AE3" t="n">
-        <v>273974.3452065166</v>
+        <v>378562.3557549838</v>
       </c>
       <c r="AF3" t="n">
         <v>1.233551098659255e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.63657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>247826.6182254954</v>
+        <v>342432.8958373306</v>
       </c>
     </row>
   </sheetData>
